--- a/data/dangky_test.xlsx
+++ b/data/dangky_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>minh2204</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1024,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1181,7 +1184,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
